--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,10 +504,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10603</x:v>
+        <x:v>10614</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4260</x:v>
+        <x:v>4265</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22789</x:v>
+        <x:v>22805</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -533,7 +533,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>707</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>454</x:v>
@@ -551,7 +551,7 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1469</x:v>
+        <x:v>1468</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11310</x:v>
+        <x:v>11320</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4714</x:v>
+        <x:v>4719</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24258</x:v>
+        <x:v>24273</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,10 +504,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10614</x:v>
+        <x:v>10631</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4265</x:v>
+        <x:v>4269</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22805</x:v>
+        <x:v>22826</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11320</x:v>
+        <x:v>11337</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4719</x:v>
+        <x:v>4723</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24273</x:v>
+        <x:v>24294</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,10 +823,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10194</x:v>
+        <x:v>10195</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1666</x:v>
+        <x:v>1667</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>426</x:v>
@@ -841,7 +841,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14884</x:v>
+        <x:v>14886</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,10 +881,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10292</x:v>
+        <x:v>10293</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1672</x:v>
+        <x:v>1673</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>430</x:v>
@@ -899,7 +899,7 @@
         <x:v>2090</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15039</x:v>
+        <x:v>15041</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10631</x:v>
+        <x:v>10635</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4269</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22826</x:v>
+        <x:v>22830</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11337</x:v>
+        <x:v>11341</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4723</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24294</x:v>
+        <x:v>24298</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,10 +504,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10635</x:v>
+        <x:v>10637</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4269</x:v>
+        <x:v>4270</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22830</x:v>
+        <x:v>22833</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11341</x:v>
+        <x:v>11343</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4723</x:v>
+        <x:v>4724</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24298</x:v>
+        <x:v>24301</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -739,7 +739,7 @@
         <x:v>1786</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>41</x:v>
@@ -754,7 +754,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3234</x:v>
+        <x:v>3235</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -797,7 +797,7 @@
         <x:v>2246</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1231</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>58</x:v>
@@ -812,7 +812,7 @@
         <x:v>570</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4302</x:v>
+        <x:v>4303</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10637</x:v>
+        <x:v>10638</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4270</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22833</x:v>
+        <x:v>22834</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11343</x:v>
+        <x:v>11344</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4724</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24301</x:v>
+        <x:v>24302</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10195</x:v>
+        <x:v>10194</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1667</x:v>
@@ -841,7 +841,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14886</x:v>
+        <x:v>14885</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10293</x:v>
+        <x:v>10292</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1673</x:v>
@@ -899,7 +899,7 @@
         <x:v>2090</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15041</x:v>
+        <x:v>15040</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -971,7 +971,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>1</x:v>
@@ -986,7 +986,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1029,7 +1029,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>1</x:v>
@@ -1044,7 +1044,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -823,10 +823,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10194</x:v>
+        <x:v>10198</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1667</x:v>
+        <x:v>1668</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>426</x:v>
@@ -841,7 +841,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14885</x:v>
+        <x:v>14890</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,10 +881,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10292</x:v>
+        <x:v>10296</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1673</x:v>
+        <x:v>1674</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>430</x:v>
@@ -899,7 +899,7 @@
         <x:v>2090</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15040</x:v>
+        <x:v>15045</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1432</x:v>
+        <x:v>1433</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1451</x:v>
@@ -1160,7 +1160,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3500</x:v>
+        <x:v>3501</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1200,7 +1200,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>1550</x:v>
+        <x:v>1551</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>1541</x:v>
@@ -1218,7 +1218,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>3730</x:v>
+        <x:v>3731</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -507,7 +507,7 @@
         <x:v>10638</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4270</x:v>
+        <x:v>4269</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22834</x:v>
+        <x:v>22833</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>11344</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4724</x:v>
+        <x:v>4723</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24302</x:v>
+        <x:v>24301</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10198</x:v>
+        <x:v>10200</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14890</x:v>
+        <x:v>14892</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10296</x:v>
+        <x:v>10298</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2090</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15045</x:v>
+        <x:v>15047</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10200</x:v>
+        <x:v>10203</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14892</x:v>
+        <x:v>14895</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10298</x:v>
+        <x:v>10301</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2090</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15047</x:v>
+        <x:v>15050</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -768,7 +768,7 @@
         <x:v>460</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>17</x:v>
@@ -783,7 +783,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>1068</x:v>
+        <x:v>1073</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -797,7 +797,7 @@
         <x:v>2246</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1232</x:v>
+        <x:v>1237</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>58</x:v>
@@ -812,7 +812,7 @@
         <x:v>570</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4303</x:v>
+        <x:v>4308</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -513,7 +513,7 @@
         <x:v>391</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1340</x:v>
+        <x:v>1341</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>20</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22833</x:v>
+        <x:v>22834</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -571,7 +571,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1383</x:v>
+        <x:v>1384</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>20</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24301</x:v>
+        <x:v>24302</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -829,7 +829,7 @@
         <x:v>1668</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>522</x:v>
@@ -841,7 +841,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14895</x:v>
+        <x:v>14896</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -887,7 +887,7 @@
         <x:v>1674</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>530</x:v>
@@ -899,7 +899,7 @@
         <x:v>2090</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15050</x:v>
+        <x:v>15051</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10638</x:v>
+        <x:v>10639</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4269</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22834</x:v>
+        <x:v>22835</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11344</x:v>
+        <x:v>11345</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4723</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24302</x:v>
+        <x:v>24303</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -736,7 +736,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1786</x:v>
+        <x:v>1787</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>845</x:v>
@@ -754,7 +754,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3235</x:v>
+        <x:v>3236</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -794,7 +794,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2246</x:v>
+        <x:v>2247</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1237</x:v>
@@ -812,7 +812,7 @@
         <x:v>570</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4308</x:v>
+        <x:v>4309</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,10 +504,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10639</x:v>
+        <x:v>10647</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4269</x:v>
+        <x:v>4270</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22835</x:v>
+        <x:v>22844</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11345</x:v>
+        <x:v>11353</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4723</x:v>
+        <x:v>4724</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24303</x:v>
+        <x:v>24312</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -829,7 +829,7 @@
         <x:v>1668</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>522</x:v>
@@ -841,7 +841,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14896</x:v>
+        <x:v>14895</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -887,7 +887,7 @@
         <x:v>1674</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>530</x:v>
@@ -899,7 +899,7 @@
         <x:v>2090</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15051</x:v>
+        <x:v>15050</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1145,7 +1145,7 @@
         <x:v>1433</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1451</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>78</x:v>
@@ -1160,7 +1160,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3501</x:v>
+        <x:v>3500</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1203,7 +1203,7 @@
         <x:v>1551</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>1541</x:v>
+        <x:v>1540</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>78</x:v>
@@ -1218,7 +1218,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>3731</x:v>
+        <x:v>3730</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,10 +504,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10647</x:v>
+        <x:v>10648</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4270</x:v>
+        <x:v>4271</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6175</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22844</x:v>
+        <x:v>22846</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11353</x:v>
+        <x:v>11354</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4724</x:v>
+        <x:v>4725</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6406</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24312</x:v>
+        <x:v>24314</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10648</x:v>
+        <x:v>10654</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4271</x:v>
@@ -519,10 +519,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6175</x:v>
+        <x:v>6176</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22846</x:v>
+        <x:v>22853</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11354</x:v>
+        <x:v>11360</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4725</x:v>
@@ -577,10 +577,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6406</x:v>
+        <x:v>6407</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24314</x:v>
+        <x:v>24321</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -736,7 +736,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1787</x:v>
+        <x:v>1788</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>845</x:v>
@@ -754,7 +754,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3236</x:v>
+        <x:v>3237</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -794,7 +794,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2247</x:v>
+        <x:v>2248</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1237</x:v>
@@ -812,7 +812,7 @@
         <x:v>570</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4309</x:v>
+        <x:v>4310</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10203</x:v>
+        <x:v>10204</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -832,7 +832,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>25</x:v>
@@ -841,7 +841,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14895</x:v>
+        <x:v>14897</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10301</x:v>
+        <x:v>10302</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -890,7 +890,7 @@
         <x:v>430</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>25</x:v>
@@ -899,7 +899,7 @@
         <x:v>2090</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15050</x:v>
+        <x:v>15052</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -977,7 +977,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>1</x:v>
@@ -986,7 +986,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1035,7 +1035,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
@@ -1044,7 +1044,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10204</x:v>
+        <x:v>10205</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14897</x:v>
+        <x:v>14898</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10302</x:v>
+        <x:v>10303</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2090</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15052</x:v>
+        <x:v>15053</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1171,10 +1171,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>0</x:v>
@@ -1189,7 +1189,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1200,10 +1200,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>1551</x:v>
+        <x:v>1552</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>1540</x:v>
+        <x:v>1541</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>78</x:v>
@@ -1218,7 +1218,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>3730</x:v>
+        <x:v>3732</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10205</x:v>
+        <x:v>10206</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -838,7 +838,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2051</x:v>
+        <x:v>2050</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
         <x:v>14898</x:v>
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10303</x:v>
+        <x:v>10304</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -896,7 +896,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2090</x:v>
+        <x:v>2089</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
         <x:v>15053</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10654</x:v>
+        <x:v>10655</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4271</x:v>
@@ -522,7 +522,7 @@
         <x:v>6176</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22853</x:v>
+        <x:v>22854</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11360</x:v>
+        <x:v>11361</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4725</x:v>
@@ -580,7 +580,7 @@
         <x:v>6407</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24321</x:v>
+        <x:v>24322</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,10 +504,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10655</x:v>
+        <x:v>10668</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4271</x:v>
+        <x:v>4273</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6176</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22854</x:v>
+        <x:v>22869</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11361</x:v>
+        <x:v>11374</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4725</x:v>
+        <x:v>4727</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6407</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24322</x:v>
+        <x:v>24337</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -968,7 +968,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>23</x:v>
@@ -986,7 +986,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1026,7 +1026,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>23</x:v>
@@ -1044,7 +1044,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10668</x:v>
+        <x:v>10672</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4273</x:v>
@@ -522,7 +522,7 @@
         <x:v>6176</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22869</x:v>
+        <x:v>22873</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11374</x:v>
+        <x:v>11378</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4727</x:v>
@@ -580,7 +580,7 @@
         <x:v>6407</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24337</x:v>
+        <x:v>24341</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10206</x:v>
+        <x:v>10207</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14898</x:v>
+        <x:v>14899</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10304</x:v>
+        <x:v>10305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2089</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15053</x:v>
+        <x:v>15054</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10672</x:v>
+        <x:v>10671</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4273</x:v>
@@ -522,7 +522,7 @@
         <x:v>6176</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22873</x:v>
+        <x:v>22872</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -536,7 +536,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>34</x:v>
@@ -548,10 +548,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1468</x:v>
+        <x:v>1471</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11378</x:v>
+        <x:v>11377</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4727</x:v>
+        <x:v>4729</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -577,10 +577,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6407</x:v>
+        <x:v>6408</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24341</x:v>
+        <x:v>24343</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -736,7 +736,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1788</x:v>
+        <x:v>1789</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>845</x:v>
@@ -754,7 +754,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3237</x:v>
+        <x:v>3238</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -794,7 +794,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2248</x:v>
+        <x:v>2249</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1237</x:v>
@@ -812,7 +812,7 @@
         <x:v>570</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4310</x:v>
+        <x:v>4311</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,10 +504,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10671</x:v>
+        <x:v>10683</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4273</x:v>
+        <x:v>4275</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6176</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22872</x:v>
+        <x:v>22886</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11377</x:v>
+        <x:v>11389</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4729</x:v>
+        <x:v>4731</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6408</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24343</x:v>
+        <x:v>24357</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10207</x:v>
+        <x:v>10208</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14899</x:v>
+        <x:v>14900</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10305</x:v>
+        <x:v>10306</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2089</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15054</x:v>
+        <x:v>15055</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,10 +504,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10683</x:v>
+        <x:v>10681</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4275</x:v>
+        <x:v>4273</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6176</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22886</x:v>
+        <x:v>22882</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11389</x:v>
+        <x:v>11387</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4731</x:v>
+        <x:v>4729</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6408</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24357</x:v>
+        <x:v>24353</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -519,10 +519,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6176</x:v>
+        <x:v>6179</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22882</x:v>
+        <x:v>22885</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -577,10 +577,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6408</x:v>
+        <x:v>6411</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24353</x:v>
+        <x:v>24356</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -507,7 +507,7 @@
         <x:v>10681</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4273</x:v>
+        <x:v>4274</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6179</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22885</x:v>
+        <x:v>22886</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>11387</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4729</x:v>
+        <x:v>4730</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6411</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24356</x:v>
+        <x:v>24357</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10681</x:v>
+        <x:v>10679</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4274</x:v>
@@ -513,13 +513,13 @@
         <x:v>391</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1341</x:v>
+        <x:v>1342</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6179</x:v>
+        <x:v>6180</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
         <x:v>22886</x:v>
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11387</x:v>
+        <x:v>11385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4730</x:v>
@@ -571,13 +571,13 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1384</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6411</x:v>
+        <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
         <x:v>24357</x:v>
@@ -1148,7 +1148,7 @@
         <x:v>1450</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>237</x:v>
@@ -1160,7 +1160,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3500</x:v>
+        <x:v>3501</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1206,7 +1206,7 @@
         <x:v>1541</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
         <x:v>241</x:v>
@@ -1218,7 +1218,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>3732</x:v>
+        <x:v>3733</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10679</x:v>
+        <x:v>10678</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4274</x:v>
@@ -522,7 +522,7 @@
         <x:v>6180</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22886</x:v>
+        <x:v>22885</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11385</x:v>
+        <x:v>11384</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4730</x:v>
@@ -580,7 +580,7 @@
         <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24357</x:v>
+        <x:v>24356</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10678</x:v>
+        <x:v>10679</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4274</x:v>
@@ -522,7 +522,7 @@
         <x:v>6180</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22885</x:v>
+        <x:v>22886</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11384</x:v>
+        <x:v>11385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4730</x:v>
@@ -580,7 +580,7 @@
         <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24356</x:v>
+        <x:v>24357</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10208</x:v>
+        <x:v>10209</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14900</x:v>
+        <x:v>14901</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10306</x:v>
+        <x:v>10307</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2089</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15055</x:v>
+        <x:v>15056</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1433</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1450</x:v>
@@ -1160,7 +1160,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3501</x:v>
+        <x:v>3502</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1200,7 +1200,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>1552</x:v>
+        <x:v>1553</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>1541</x:v>
@@ -1218,7 +1218,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>3733</x:v>
+        <x:v>3734</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -507,13 +507,13 @@
         <x:v>10679</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4274</x:v>
+        <x:v>4273</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1342</x:v>
+        <x:v>1341</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>20</x:v>
@@ -522,7 +522,7 @@
         <x:v>6180</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22886</x:v>
+        <x:v>22884</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,13 +565,13 @@
         <x:v>11385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4730</x:v>
+        <x:v>4729</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1385</x:v>
+        <x:v>1384</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>20</x:v>
@@ -580,7 +580,7 @@
         <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24357</x:v>
+        <x:v>24355</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -507,7 +507,7 @@
         <x:v>10679</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4273</x:v>
+        <x:v>4274</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6180</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22884</x:v>
+        <x:v>22885</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>11385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4729</x:v>
+        <x:v>4730</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24355</x:v>
+        <x:v>24356</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -507,13 +507,13 @@
         <x:v>10679</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4274</x:v>
+        <x:v>4275</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1341</x:v>
+        <x:v>1342</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>20</x:v>
@@ -522,7 +522,7 @@
         <x:v>6180</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22885</x:v>
+        <x:v>22887</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,13 +565,13 @@
         <x:v>11385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4730</x:v>
+        <x:v>4731</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1384</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>20</x:v>
@@ -580,7 +580,7 @@
         <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24356</x:v>
+        <x:v>24358</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,10 +504,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10679</x:v>
+        <x:v>10680</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4275</x:v>
+        <x:v>4277</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>391</x:v>
@@ -522,7 +522,7 @@
         <x:v>6180</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22887</x:v>
+        <x:v>22890</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,10 +562,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11385</x:v>
+        <x:v>11386</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4731</x:v>
+        <x:v>4733</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24358</x:v>
+        <x:v>24361</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -536,7 +536,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>34</x:v>
@@ -551,7 +551,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1471</x:v>
+        <x:v>1470</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>11386</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4733</x:v>
+        <x:v>4732</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>425</x:v>
@@ -580,7 +580,7 @@
         <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24361</x:v>
+        <x:v>24360</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10680</x:v>
+        <x:v>10681</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4277</x:v>
@@ -522,7 +522,7 @@
         <x:v>6180</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22890</x:v>
+        <x:v>22891</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11386</x:v>
+        <x:v>11387</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4732</x:v>
@@ -580,7 +580,7 @@
         <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24360</x:v>
+        <x:v>24361</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10209</x:v>
+        <x:v>10210</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14901</x:v>
+        <x:v>14902</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10307</x:v>
+        <x:v>10308</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2089</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15056</x:v>
+        <x:v>15057</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,13 +504,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10681</x:v>
+        <x:v>10682</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4277</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1342</x:v>
@@ -562,13 +562,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11387</x:v>
+        <x:v>11388</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4732</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>1385</x:v>
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10210</x:v>
+        <x:v>10212</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14902</x:v>
+        <x:v>14904</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10308</x:v>
+        <x:v>10310</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2089</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15057</x:v>
+        <x:v>15059</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1145,7 +1145,7 @@
         <x:v>1434</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1450</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>79</x:v>
@@ -1160,7 +1160,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3502</x:v>
+        <x:v>3501</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1203,7 +1203,7 @@
         <x:v>1553</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>1541</x:v>
+        <x:v>1540</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>79</x:v>
@@ -1218,7 +1218,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>3734</x:v>
+        <x:v>3733</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10212</x:v>
+        <x:v>10213</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14904</x:v>
+        <x:v>14905</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10310</x:v>
+        <x:v>10311</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2089</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15059</x:v>
+        <x:v>15060</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10213</x:v>
+        <x:v>10212</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14905</x:v>
+        <x:v>14904</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10311</x:v>
+        <x:v>10310</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2089</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15060</x:v>
+        <x:v>15059</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10682</x:v>
+        <x:v>10683</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4277</x:v>
@@ -522,7 +522,7 @@
         <x:v>6180</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22891</x:v>
+        <x:v>22892</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11388</x:v>
+        <x:v>11389</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4732</x:v>
@@ -580,7 +580,7 @@
         <x:v>6412</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24361</x:v>
+        <x:v>24362</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -736,7 +736,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1789</x:v>
+        <x:v>1788</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>845</x:v>
@@ -754,7 +754,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3238</x:v>
+        <x:v>3237</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -794,7 +794,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2249</x:v>
+        <x:v>2248</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1237</x:v>
@@ -812,7 +812,7 @@
         <x:v>570</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4311</x:v>
+        <x:v>4310</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10213</x:v>
+        <x:v>10214</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1668</x:v>
@@ -841,7 +841,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14905</x:v>
+        <x:v>14906</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10311</x:v>
+        <x:v>10312</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1674</x:v>
@@ -899,7 +899,7 @@
         <x:v>2089</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15060</x:v>
+        <x:v>15061</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10683</x:v>
+        <x:v>10681</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4277</x:v>
@@ -519,10 +519,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6180</x:v>
+        <x:v>6181</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22892</x:v>
+        <x:v>22891</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11389</x:v>
+        <x:v>11387</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4732</x:v>
@@ -577,10 +577,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6412</x:v>
+        <x:v>6413</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24362</x:v>
+        <x:v>24361</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -736,16 +736,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1788</x:v>
+        <x:v>1787</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>12</x:v>
@@ -754,7 +754,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3237</x:v>
+        <x:v>3234</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -765,10 +765,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>17</x:v>
@@ -783,7 +783,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>1073</x:v>
+        <x:v>1071</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -794,16 +794,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2248</x:v>
+        <x:v>2246</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1237</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>58</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>12</x:v>
@@ -812,7 +812,7 @@
         <x:v>570</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4310</x:v>
+        <x:v>4305</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -823,10 +823,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10214</x:v>
+        <x:v>10225</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1668</x:v>
+        <x:v>1672</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>426</x:v>
@@ -838,10 +838,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2050</x:v>
+        <x:v>2052</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14906</x:v>
+        <x:v>14923</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -852,7 +852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>6</x:v>
@@ -870,7 +870,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -881,10 +881,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10312</x:v>
+        <x:v>10324</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1674</x:v>
+        <x:v>1678</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>430</x:v>
@@ -896,10 +896,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2089</x:v>
+        <x:v>2091</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15061</x:v>
+        <x:v>15079</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1055,7 +1055,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1378</x:v>
+        <x:v>1376</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>294</x:v>
@@ -1073,7 +1073,7 @@
         <x:v>628</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2413</x:v>
+        <x:v>2411</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1113,7 +1113,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>1911</x:v>
+        <x:v>1909</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>336</x:v>
@@ -1131,7 +1131,7 @@
         <x:v>824</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>3222</x:v>
+        <x:v>3220</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1145,7 +1145,7 @@
         <x:v>1434</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1449</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>79</x:v>
@@ -1160,7 +1160,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3501</x:v>
+        <x:v>3502</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1203,7 +1203,7 @@
         <x:v>1553</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>1540</x:v>
+        <x:v>1541</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>79</x:v>
@@ -1218,7 +1218,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>3733</x:v>
+        <x:v>3734</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10681</x:v>
+        <x:v>10680</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4277</x:v>
@@ -522,7 +522,7 @@
         <x:v>6181</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22891</x:v>
+        <x:v>22890</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11387</x:v>
+        <x:v>11386</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4732</x:v>
@@ -580,7 +580,7 @@
         <x:v>6413</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24361</x:v>
+        <x:v>24360</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10225</x:v>
+        <x:v>10224</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1672</x:v>
@@ -841,7 +841,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14923</x:v>
+        <x:v>14922</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10324</x:v>
+        <x:v>10323</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1678</x:v>
@@ -899,7 +899,7 @@
         <x:v>2091</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15079</x:v>
+        <x:v>15078</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10680</x:v>
+        <x:v>10681</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4277</x:v>
@@ -522,7 +522,7 @@
         <x:v>6181</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22890</x:v>
+        <x:v>22891</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11386</x:v>
+        <x:v>11387</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4732</x:v>
@@ -580,7 +580,7 @@
         <x:v>6413</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24360</x:v>
+        <x:v>24361</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10224</x:v>
+        <x:v>10225</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1672</x:v>
@@ -841,7 +841,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14922</x:v>
+        <x:v>14923</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10323</x:v>
+        <x:v>10324</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1678</x:v>
@@ -899,7 +899,7 @@
         <x:v>2091</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15078</x:v>
+        <x:v>15079</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10681</x:v>
+        <x:v>10680</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4277</x:v>
@@ -522,7 +522,7 @@
         <x:v>6181</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22891</x:v>
+        <x:v>22890</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11387</x:v>
+        <x:v>11386</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4732</x:v>
@@ -580,7 +580,7 @@
         <x:v>6413</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24361</x:v>
+        <x:v>24360</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -1064,7 +1064,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>3</x:v>
@@ -1073,7 +1073,7 @@
         <x:v>628</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2411</x:v>
+        <x:v>2412</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1122,7 +1122,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>4</x:v>
@@ -1131,7 +1131,7 @@
         <x:v>824</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>3220</x:v>
+        <x:v>3221</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -507,7 +507,7 @@
         <x:v>10680</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4277</x:v>
+        <x:v>4278</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>390</x:v>
@@ -519,10 +519,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6181</x:v>
+        <x:v>6183</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22890</x:v>
+        <x:v>22893</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>11386</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4732</x:v>
+        <x:v>4733</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>424</x:v>
@@ -577,10 +577,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6413</x:v>
+        <x:v>6415</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24360</x:v>
+        <x:v>24363</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -504,7 +504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10680</x:v>
+        <x:v>10679</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4278</x:v>
@@ -513,7 +513,7 @@
         <x:v>390</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1342</x:v>
+        <x:v>1343</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>20</x:v>
@@ -562,7 +562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11386</x:v>
+        <x:v>11385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4733</x:v>
@@ -571,7 +571,7 @@
         <x:v>424</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1385</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>20</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -536,7 +536,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>34</x:v>
@@ -551,7 +551,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1470</x:v>
+        <x:v>1469</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>11385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4733</x:v>
+        <x:v>4732</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>424</x:v>
@@ -580,7 +580,7 @@
         <x:v>6415</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24363</x:v>
+        <x:v>24362</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -507,10 +507,10 @@
         <x:v>10679</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4278</x:v>
+        <x:v>4279</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1343</x:v>
@@ -522,7 +522,7 @@
         <x:v>6183</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22893</x:v>
+        <x:v>22895</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,10 +565,10 @@
         <x:v>11385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4732</x:v>
+        <x:v>4733</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>1386</x:v>
@@ -580,7 +580,7 @@
         <x:v>6415</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24362</x:v>
+        <x:v>24364</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -823,7 +823,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10225</x:v>
+        <x:v>10226</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1672</x:v>
@@ -841,7 +841,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14923</x:v>
+        <x:v>14924</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10324</x:v>
+        <x:v>10325</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1678</x:v>
@@ -899,7 +899,7 @@
         <x:v>2091</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15079</x:v>
+        <x:v>15080</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Group B Arrests" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Group B Arrests" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -49,34 +49,355 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
+    <x:t>10679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22894</x:t>
+  </x:si>
+  <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
+    <x:t>706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1469</x:t>
+  </x:si>
+  <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
+    <x:t>11385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24363</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bad Checks</x:t>
   </x:si>
   <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>308</x:t>
+  </x:si>
+  <x:si>
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
+    <x:t>1787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>394</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4305</x:t>
+  </x:si>
+  <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
+    <x:t>10226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14924</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15080</x:t>
+  </x:si>
+  <x:si>
     <x:t>Drunkenness</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>1376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3221</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3734</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -85,7 +406,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -135,13 +456,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -150,7 +471,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -158,7 +479,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -453,7 +774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -503,26 +824,26 @@
       <x:c r="B2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>10679</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>4279</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>391</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="n">
-        <x:v>1343</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>6183</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="n">
-        <x:v>22895</x:v>
+      <x:c r="C2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,28 +851,28 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>706</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="n">
-        <x:v>1469</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -559,666 +880,666 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>11385</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>4733</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>425</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>1386</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>6415</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="n">
-        <x:v>24364</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="n">
-        <x:v>8</x:v>
+      <x:c r="C5" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I6" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="n">
-        <x:v>61</x:v>
+      <x:c r="C7" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="n">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="n">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="s">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>1787</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>844</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="n">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="n">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="n">
-        <x:v>3234</x:v>
+      <x:c r="C10" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>459</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>391</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="n">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="n">
-        <x:v>1071</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I11" s="1" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="n">
-        <x:v>2246</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="n">
-        <x:v>1235</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="n">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F12" s="1" t="n">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H12" s="1" t="n">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="n">
-        <x:v>4305</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C13" s="1" t="n">
-        <x:v>10226</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="n">
-        <x:v>1672</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="n">
-        <x:v>426</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="n">
-        <x:v>523</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="n">
-        <x:v>2052</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="n">
-        <x:v>14924</x:v>
+      <x:c r="C13" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I13" s="1" t="s">
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="n">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="n">
-        <x:v>10325</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="n">
-        <x:v>1678</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="n">
-        <x:v>430</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="n">
-        <x:v>531</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="n">
-        <x:v>2091</x:v>
-      </x:c>
-      <x:c r="I15" s="1" t="n">
-        <x:v>15080</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I15" s="1" t="s">
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C16" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="n">
-        <x:v>2</x:v>
+      <x:c r="C16" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I16" s="1" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H17" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C18" s="1" t="n">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="n">
-        <x:v>136</x:v>
+      <x:c r="C18" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="n">
-        <x:v>1</x:v>
+      <x:c r="C19" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="n">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I20" s="1" t="s">
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C21" s="1" t="n">
-        <x:v>1376</x:v>
-      </x:c>
-      <x:c r="D21" s="1" t="n">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F21" s="1" t="n">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="n">
-        <x:v>628</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="n">
-        <x:v>2412</x:v>
+      <x:c r="C21" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F21" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="n">
-        <x:v>533</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="n">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G22" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H22" s="1" t="n">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G22" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H22" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="n">
-        <x:v>1909</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="n">
-        <x:v>336</x:v>
-      </x:c>
-      <x:c r="E23" s="1" t="n">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F23" s="1" t="n">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="G23" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H23" s="1" t="n">
-        <x:v>824</x:v>
-      </x:c>
-      <x:c r="I23" s="1" t="n">
-        <x:v>3221</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G23" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H23" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I23" s="1" t="s">
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C24" s="1" t="n">
-        <x:v>1434</x:v>
-      </x:c>
-      <x:c r="D24" s="1" t="n">
-        <x:v>1450</x:v>
-      </x:c>
-      <x:c r="E24" s="1" t="n">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F24" s="1" t="n">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="G24" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H24" s="1" t="n">
-        <x:v>291</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="n">
-        <x:v>3502</x:v>
+      <x:c r="C24" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F24" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G24" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="H24" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I24" s="1" t="s">
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C25" s="1" t="n">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D25" s="1" t="n">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F25" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G25" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H25" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I25" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F25" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G25" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H25" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="I25" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C26" s="1" t="n">
-        <x:v>1553</x:v>
-      </x:c>
-      <x:c r="D26" s="1" t="n">
-        <x:v>1541</x:v>
-      </x:c>
-      <x:c r="E26" s="1" t="n">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F26" s="1" t="n">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="G26" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H26" s="1" t="n">
-        <x:v>307</x:v>
-      </x:c>
-      <x:c r="I26" s="1" t="n">
-        <x:v>3734</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D26" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E26" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F26" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G26" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H26" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="I26" s="1" t="s">
+        <x:v>127</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -238,7 +238,7 @@
     <x:t>10226</x:t>
   </x:si>
   <x:si>
-    <x:t>1672</x:t>
+    <x:t>1673</x:t>
   </x:si>
   <x:si>
     <x:t>426</x:t>
@@ -253,7 +253,7 @@
     <x:t>2052</x:t>
   </x:si>
   <x:si>
-    <x:t>14924</x:t>
+    <x:t>14925</x:t>
   </x:si>
   <x:si>
     <x:t>99</x:t>
@@ -268,7 +268,7 @@
     <x:t>10325</x:t>
   </x:si>
   <x:si>
-    <x:t>1678</x:t>
+    <x:t>1679</x:t>
   </x:si>
   <x:si>
     <x:t>430</x:t>
@@ -280,7 +280,7 @@
     <x:t>2091</x:t>
   </x:si>
   <x:si>
-    <x:t>15080</x:t>
+    <x:t>15081</x:t>
   </x:si>
   <x:si>
     <x:t>Drunkenness</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10679</x:t>
+    <x:t>10678</x:t>
   </x:si>
   <x:si>
     <x:t>4279</x:t>
@@ -58,7 +58,7 @@
     <x:t>390</x:t>
   </x:si>
   <x:si>
-    <x:t>1343</x:t>
+    <x:t>1344</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11385</x:t>
+    <x:t>11384</x:t>
   </x:si>
   <x:si>
     <x:t>4733</x:t>
@@ -106,7 +106,7 @@
     <x:t>424</x:t>
   </x:si>
   <x:si>
-    <x:t>1386</x:t>
+    <x:t>1387</x:t>
   </x:si>
   <x:si>
     <x:t>6415</x:t>
@@ -238,7 +238,7 @@
     <x:t>10226</x:t>
   </x:si>
   <x:si>
-    <x:t>1673</x:t>
+    <x:t>1674</x:t>
   </x:si>
   <x:si>
     <x:t>426</x:t>
@@ -253,7 +253,7 @@
     <x:t>2052</x:t>
   </x:si>
   <x:si>
-    <x:t>14925</x:t>
+    <x:t>14926</x:t>
   </x:si>
   <x:si>
     <x:t>99</x:t>
@@ -268,7 +268,7 @@
     <x:t>10325</x:t>
   </x:si>
   <x:si>
-    <x:t>1679</x:t>
+    <x:t>1680</x:t>
   </x:si>
   <x:si>
     <x:t>430</x:t>
@@ -280,7 +280,7 @@
     <x:t>2091</x:t>
   </x:si>
   <x:si>
-    <x:t>15081</x:t>
+    <x:t>15082</x:t>
   </x:si>
   <x:si>
     <x:t>Drunkenness</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10678</x:t>
+    <x:t>10677</x:t>
   </x:si>
   <x:si>
     <x:t>4279</x:t>
@@ -67,7 +67,7 @@
     <x:t>6183</x:t>
   </x:si>
   <x:si>
-    <x:t>22894</x:t>
+    <x:t>22893</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -88,316 +88,319 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
+    <x:t>233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24363</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bad Checks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>394</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14927</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drunkenness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
     <x:t>232</x:t>
   </x:si>
   <x:si>
-    <x:t>1469</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4733</x:t>
-  </x:si>
-  <x:si>
-    <x:t>424</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6415</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24363</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bad Checks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>844</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>394</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1235</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1674</x:t>
-  </x:si>
-  <x:si>
-    <x:t>426</x:t>
-  </x:si>
-  <x:si>
-    <x:t>523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14926</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1680</x:t>
-  </x:si>
-  <x:si>
-    <x:t>430</x:t>
-  </x:si>
-  <x:si>
-    <x:t>531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drunkenness</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1376</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196</x:t>
-  </x:si>
-  <x:si>
-    <x:t>809</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1909</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>824</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>237</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3502</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1553</x:t>
+    <x:t>1554</x:t>
   </x:si>
   <x:si>
     <x:t>1541</x:t>
   </x:si>
   <x:si>
-    <x:t>241</x:t>
+    <x:t>242</x:t>
   </x:si>
   <x:si>
     <x:t>307</x:t>
   </x:si>
   <x:si>
-    <x:t>3734</x:t>
+    <x:t>3736</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1510,7 +1513,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1521,25 +1524,25 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -52,7 +52,7 @@
     <x:t>10677</x:t>
   </x:si>
   <x:si>
-    <x:t>4279</x:t>
+    <x:t>4278</x:t>
   </x:si>
   <x:si>
     <x:t>390</x:t>
@@ -67,7 +67,7 @@
     <x:t>6183</x:t>
   </x:si>
   <x:si>
-    <x:t>22893</x:t>
+    <x:t>22892</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -100,7 +100,7 @@
     <x:t>11383</x:t>
   </x:si>
   <x:si>
-    <x:t>4733</x:t>
+    <x:t>4732</x:t>
   </x:si>
   <x:si>
     <x:t>424</x:t>
@@ -112,7 +112,7 @@
     <x:t>6416</x:t>
   </x:si>
   <x:si>
-    <x:t>24363</x:t>
+    <x:t>24362</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -235,7 +235,7 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10227</x:t>
+    <x:t>10229</x:t>
   </x:si>
   <x:si>
     <x:t>1674</x:t>
@@ -253,7 +253,7 @@
     <x:t>2052</x:t>
   </x:si>
   <x:si>
-    <x:t>14927</x:t>
+    <x:t>14929</x:t>
   </x:si>
   <x:si>
     <x:t>99</x:t>
@@ -265,7 +265,7 @@
     <x:t>39</x:t>
   </x:si>
   <x:si>
-    <x:t>10326</x:t>
+    <x:t>10328</x:t>
   </x:si>
   <x:si>
     <x:t>1680</x:t>
@@ -280,7 +280,7 @@
     <x:t>2091</x:t>
   </x:si>
   <x:si>
-    <x:t>15083</x:t>
+    <x:t>15085</x:t>
   </x:si>
   <x:si>
     <x:t>Drunkenness</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4278</x:t>
+    <x:t>10678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4279</x:t>
   </x:si>
   <x:si>
     <x:t>390</x:t>
@@ -67,13 +67,13 @@
     <x:t>6183</x:t>
   </x:si>
   <x:si>
-    <x:t>22892</x:t>
+    <x:t>22894</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>706</x:t>
+    <x:t>705</x:t>
   </x:si>
   <x:si>
     <x:t>454</x:t>
@@ -88,10 +88,10 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1470</x:t>
+    <x:t>235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1471</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
@@ -100,7 +100,7 @@
     <x:t>11383</x:t>
   </x:si>
   <x:si>
-    <x:t>4732</x:t>
+    <x:t>4733</x:t>
   </x:si>
   <x:si>
     <x:t>424</x:t>
@@ -109,10 +109,10 @@
     <x:t>1387</x:t>
   </x:si>
   <x:si>
-    <x:t>6416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24362</x:t>
+    <x:t>6418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24365</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10678</x:t>
+    <x:t>10679</x:t>
   </x:si>
   <x:si>
     <x:t>4279</x:t>
@@ -67,7 +67,7 @@
     <x:t>6183</x:t>
   </x:si>
   <x:si>
-    <x:t>22894</x:t>
+    <x:t>22895</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11383</x:t>
+    <x:t>11384</x:t>
   </x:si>
   <x:si>
     <x:t>4733</x:t>
@@ -112,7 +112,7 @@
     <x:t>6418</x:t>
   </x:si>
   <x:si>
-    <x:t>24365</x:t>
+    <x:t>24366</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10679</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4279</x:t>
+    <x:t>10680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4280</x:t>
   </x:si>
   <x:si>
     <x:t>390</x:t>
@@ -67,7 +67,7 @@
     <x:t>6183</x:t>
   </x:si>
   <x:si>
-    <x:t>22895</x:t>
+    <x:t>22897</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,10 +97,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4733</x:t>
+    <x:t>11385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4734</x:t>
   </x:si>
   <x:si>
     <x:t>424</x:t>
@@ -112,7 +112,7 @@
     <x:t>6418</x:t>
   </x:si>
   <x:si>
-    <x:t>24366</x:t>
+    <x:t>24368</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
@@ -235,7 +235,7 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10229</x:t>
+    <x:t>10230</x:t>
   </x:si>
   <x:si>
     <x:t>1674</x:t>
@@ -253,7 +253,7 @@
     <x:t>2052</x:t>
   </x:si>
   <x:si>
-    <x:t>14929</x:t>
+    <x:t>14930</x:t>
   </x:si>
   <x:si>
     <x:t>99</x:t>
@@ -265,7 +265,7 @@
     <x:t>39</x:t>
   </x:si>
   <x:si>
-    <x:t>10328</x:t>
+    <x:t>10329</x:t>
   </x:si>
   <x:si>
     <x:t>1680</x:t>
@@ -280,7 +280,7 @@
     <x:t>2091</x:t>
   </x:si>
   <x:si>
-    <x:t>15085</x:t>
+    <x:t>15086</x:t>
   </x:si>
   <x:si>
     <x:t>Drunkenness</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10680</x:t>
+    <x:t>10681</x:t>
   </x:si>
   <x:si>
     <x:t>4280</x:t>
@@ -67,7 +67,7 @@
     <x:t>6183</x:t>
   </x:si>
   <x:si>
-    <x:t>22897</x:t>
+    <x:t>22898</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11385</x:t>
+    <x:t>11386</x:t>
   </x:si>
   <x:si>
     <x:t>4734</x:t>
@@ -112,7 +112,7 @@
     <x:t>6418</x:t>
   </x:si>
   <x:si>
-    <x:t>24368</x:t>
+    <x:t>24369</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
@@ -313,7 +313,7 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>1376</x:t>
+    <x:t>1377</x:t>
   </x:si>
   <x:si>
     <x:t>294</x:t>
@@ -325,7 +325,7 @@
     <x:t>629</x:t>
   </x:si>
   <x:si>
-    <x:t>2413</x:t>
+    <x:t>2414</x:t>
   </x:si>
   <x:si>
     <x:t>533</x:t>
@@ -340,7 +340,7 @@
     <x:t>809</x:t>
   </x:si>
   <x:si>
-    <x:t>1909</x:t>
+    <x:t>1910</x:t>
   </x:si>
   <x:si>
     <x:t>336</x:t>
@@ -352,7 +352,7 @@
     <x:t>825</x:t>
   </x:si>
   <x:si>
-    <x:t>3222</x:t>
+    <x:t>3223</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10681</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4280</x:t>
+    <x:t>10680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4279</x:t>
   </x:si>
   <x:si>
     <x:t>390</x:t>
@@ -67,7 +67,7 @@
     <x:t>6183</x:t>
   </x:si>
   <x:si>
-    <x:t>22898</x:t>
+    <x:t>22896</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,10 +97,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4734</x:t>
+    <x:t>11385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4733</x:t>
   </x:si>
   <x:si>
     <x:t>424</x:t>
@@ -112,7 +112,7 @@
     <x:t>6418</x:t>
   </x:si>
   <x:si>
-    <x:t>24369</x:t>
+    <x:t>24367</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
@@ -205,13 +205,13 @@
     <x:t>17</x:t>
   </x:si>
   <x:si>
-    <x:t>28</x:t>
+    <x:t>29</x:t>
   </x:si>
   <x:si>
     <x:t>176</x:t>
   </x:si>
   <x:si>
-    <x:t>1071</x:t>
+    <x:t>1072</x:t>
   </x:si>
   <x:si>
     <x:t>2246</x:t>
@@ -223,13 +223,13 @@
     <x:t>58</x:t>
   </x:si>
   <x:si>
-    <x:t>184</x:t>
+    <x:t>185</x:t>
   </x:si>
   <x:si>
     <x:t>570</x:t>
   </x:si>
   <x:si>
-    <x:t>4305</x:t>
+    <x:t>4306</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10680</x:t>
+    <x:t>10682</x:t>
   </x:si>
   <x:si>
     <x:t>4279</x:t>
@@ -67,7 +67,7 @@
     <x:t>6183</x:t>
   </x:si>
   <x:si>
-    <x:t>22896</x:t>
+    <x:t>22898</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11385</x:t>
+    <x:t>11387</x:t>
   </x:si>
   <x:si>
     <x:t>4733</x:t>
@@ -112,7 +112,7 @@
     <x:t>6418</x:t>
   </x:si>
   <x:si>
-    <x:t>24367</x:t>
+    <x:t>24369</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10682</x:t>
+    <x:t>10683</x:t>
   </x:si>
   <x:si>
     <x:t>4279</x:t>
@@ -67,7 +67,7 @@
     <x:t>6183</x:t>
   </x:si>
   <x:si>
-    <x:t>22898</x:t>
+    <x:t>22899</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11387</x:t>
+    <x:t>11388</x:t>
   </x:si>
   <x:si>
     <x:t>4733</x:t>
@@ -112,7 +112,7 @@
     <x:t>6418</x:t>
   </x:si>
   <x:si>
-    <x:t>24369</x:t>
+    <x:t>24370</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
